--- a/data/data_NSA.xlsx
+++ b/data/data_NSA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7a332a5fbc005db/PEER project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36163872-07E3-418F-BEA4-C38AB5C682AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{7B9D93D9-B841-4C6E-8F2E-020FF9D88FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13DF23FB-6429-48A8-8E14-04D07A63F925}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FABC17F4-2FD0-48F0-82E9-9DA05EE5A03B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="159">
   <si>
     <t>Country</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>Income</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>SnapshotURL</t>
   </si>
 </sst>
 </file>
@@ -559,6 +565,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -878,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB85068B-9062-4C38-A688-1F7CA07208D0}">
-  <dimension ref="A1:CA61"/>
+  <dimension ref="A1:CB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="CB2" sqref="CB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -889,7 +899,7 @@
     <col min="1" max="1" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -1124,8 +1134,14 @@
       <c r="BZ1" t="s">
         <v>75</v>
       </c>
+      <c r="CA1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -1364,7 +1380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -1603,7 +1619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -1842,7 +1858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -2081,7 +2097,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -2320,7 +2336,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -2559,7 +2575,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -2798,7 +2814,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3037,7 +3053,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -3276,7 +3292,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -3515,7 +3531,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -3754,7 +3770,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -3993,7 +4009,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -4232,7 +4248,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -4471,7 +4487,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>155</v>
       </c>
